--- a/Engines/M4/DesignFiles/SugarMotorCalculator.xlsx
+++ b/Engines/M4/DesignFiles/SugarMotorCalculator.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Chamber Pressure, Pcham [Bar]</t>
   </si>
@@ -148,6 +148,27 @@
   </si>
   <si>
     <t>Thrust [kg]</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>vmax [km/h]</t>
+  </si>
+  <si>
+    <t>Vmax [m/s]</t>
+  </si>
+  <si>
+    <t>Rocket Mass [kg]</t>
+  </si>
+  <si>
+    <t>Acceleration [g]</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>Hmax [m]</t>
   </si>
 </sst>
 </file>
@@ -380,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -401,6 +422,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,7 +954,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="18">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="J9" s="14">
         <f>1/K9</f>
@@ -953,7 +975,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -962,7 +984,7 @@
       </c>
       <c r="B11" s="2">
         <f>B9^2*PI()/4/100</f>
-        <v>6.1575216010359943</v>
+        <v>5.9395736106932029</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -974,7 +996,7 @@
       </c>
       <c r="B12" s="2">
         <f>B11*B10/10</f>
-        <v>30.787608005179969</v>
+        <v>26.728081248119413</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -983,7 +1005,7 @@
       </c>
       <c r="B13" s="2">
         <f>B11*B7/10*B4</f>
-        <v>7.6662223386158894</v>
+        <v>7.3948732698702377</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -992,7 +1014,7 @@
       </c>
       <c r="B14" s="2">
         <f>B26/B13</f>
-        <v>7.5157108672609443</v>
+        <v>6.7641397805348502</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1001,7 +1023,7 @@
       </c>
       <c r="B15" s="2">
         <f>B13/1000*B2/(B1*100000)*10000</f>
-        <v>0.12296620631139887</v>
+        <v>0.11861376724871862</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1010,14 +1032,14 @@
       </c>
       <c r="B16" s="17">
         <f>SQRT(100*4*B15/PI())</f>
-        <v>3.9568350552144023</v>
+        <v>3.8861772863712876</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16">
         <f>B16/25.4</f>
-        <v>0.1557809076856064</v>
+        <v>0.15299910576264913</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1071,14 +1093,7 @@
       </c>
       <c r="B22" s="2">
         <f>B1*100000*B15/10000*B20</f>
-        <v>6.4557258313484418</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="19">
-        <f>B22/9.81</f>
-        <v>0.65807602766039164</v>
+        <v>6.227222780557728</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1087,7 +1102,7 @@
       </c>
       <c r="B23" s="2">
         <f>B15*B21</f>
-        <v>0.17215268883595841</v>
+        <v>0.16605927414820607</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1096,14 +1111,14 @@
       </c>
       <c r="B24" s="17">
         <f>SQRT(100*4*B23/PI())</f>
-        <v>4.6817903750427554</v>
+        <v>4.5981869754884208</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
       </c>
       <c r="E24">
         <f>B24/25.4</f>
-        <v>0.18432245571034472</v>
+        <v>0.18103098328694572</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1115,7 +1130,7 @@
       </c>
       <c r="B26" s="2">
         <f>B12*B4</f>
-        <v>57.61711054117405</v>
+        <v>50.019956456743103</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1124,16 +1139,84 @@
       </c>
       <c r="B27" s="2">
         <f>B22/9.81*1000/B13</f>
-        <v>85.840978593272197</v>
+        <v>85.840978593272183</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="17">
         <f>9.81*B26/1000*B27</f>
-        <v>48.51936878672268</v>
+        <v>42.121805332223374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="19">
+        <f>B22/9.81</f>
+        <v>0.63478315805889174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="19">
+        <f>B14</f>
+        <v>6.7641397805348502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2">
+        <f>B29/B33-1</f>
+        <v>1.1159438601963059</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B34*9.81*B30</f>
+        <v>74.049806527031038</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2">
+        <f>B35*3.6</f>
+        <v>266.57930349731174</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="17">
+        <f>B35/2*B30</f>
+        <v>250.44162103519992</v>
       </c>
     </row>
   </sheetData>
